--- a/Include/TestData/newtest.xlsx
+++ b/Include/TestData/newtest.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BABD3B03-1396-4C93-A67B-C8CF7DD8CC96}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{66A91FC6-0A83-4E21-AB0E-401A350ACFB3}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Username</t>
   </si>
@@ -28,10 +28,10 @@
     <t>Password</t>
   </si>
   <si>
-    <t>admin</t>
+    <t>admin123</t>
   </si>
   <si>
-    <t>admin123</t>
+    <t>Admin</t>
   </si>
 </sst>
 </file>
@@ -349,15 +349,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -365,19 +365,11 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="B2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
         <v>2</v>
       </c>
     </row>
